--- a/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,44</t>
+          <t>-26,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>21,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>-24,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-36,87%</t>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-40,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59,61%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 17,73</t>
+          <t>-32,36; 13,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 18,59</t>
+          <t>-40,75; 10,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 19,46</t>
+          <t>-15,27; 32,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,27; -2,41</t>
+          <t>-53,5; -5,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 48,91</t>
+          <t>-2,92; 51,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 65,31</t>
+          <t>-45,85; 26,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 62,88</t>
+          <t>-59,18; 28,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,56; -5,52</t>
+          <t>-31,59; 159,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-69,64; -7,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 316,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>-4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>51,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 10,59</t>
+          <t>-14,76; 9,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 14,17</t>
+          <t>-2,11; 17,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 20,53</t>
+          <t>0,31; 20,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 15,88</t>
+          <t>-10,23; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 34,64</t>
+          <t>-5,3; 17,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 66,6</t>
+          <t>-31,34; 28,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 103,02</t>
+          <t>-8,63; 99,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 72,62</t>
+          <t>1,09; 119,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,72; 65,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 74,13</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,15%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>43,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 12,76</t>
+          <t>-4,09; 15,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 4,15</t>
+          <t>-11,86; 6,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 13,15</t>
+          <t>-4,53; 12,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 10,1</t>
+          <t>-5,1; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 95,58</t>
+          <t>-4,71; 14,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 30,31</t>
+          <t>-21,87; 142,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 137,12</t>
+          <t>-50,55; 67,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 100,35</t>
+          <t>-28,16; 162,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-31,74; 151,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 135,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 30,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 37,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,69; 73,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 30,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,42</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 7,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 7,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 14,24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; 6,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 16,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-24,55; 25,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-30,64; 34,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 84,49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 25,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 74,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-26,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,68</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-15,85%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-24,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,51%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-40,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>59,61%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.642864843325082</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.363477811178077</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.502684211838027</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-25.71276565854694</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>20.93893642367902</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1585285507828537</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1667206892546645</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.146280801441653</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3977290028102153</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5860495401829386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,36; 13,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-40,75; 10,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 32,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-53,5; -5,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 51,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-45,85; 26,65</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-59,18; 28,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,59; 159,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-69,64; -7,75</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 316,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.36125464354482</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-36.51189142471581</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.03956759999546</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-52.97230899125971</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.326293518015818</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.458522656731238</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5425901910188752</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3714796708301203</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6919755861550243</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.08025580906921467</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.20196706181171</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.178237607448</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>29.4165415320883</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-4.544021877849533</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>51.4045427057959</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.266455758322912</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4691621101800548</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.272576190190951</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.06481840512735586</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.293428359367611</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-4,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51,62%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 9,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 17,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 20,84</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 14,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 17,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,34; 28,64</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 99,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 119,46</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-26,72; 65,99</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 74,13</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.584393324553923</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.059016399161201</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.5511031445622</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.692930341445826</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.563268880405059</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.04119619703813583</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2112306830165307</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4920051066292184</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.09346613137109239</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1822043075070759</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-11,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>43,82%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,8%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>31,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.76478964807623</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.594864742421183</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1567645593392601</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.652793044324676</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.158329092723502</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3134253282893923</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1880174681775858</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.01607081953067851</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2620800931531797</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1441066175026446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 15,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,86; 6,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 12,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 12,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 14,22</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 142,98</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-50,55; 67,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; 162,75</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-31,74; 151,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 135,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.106078291016038</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.07010244275128</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.37963727641642</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.4071272767847</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>17.76096076242975</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2864266960732001</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7978474589140672</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.167867476116573</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6818003675845745</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7546697951638789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.267723409108152</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.178550312942559</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.779972790154075</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.619019450471525</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>4.434454719434669</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3425063318694129</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1304341533366474</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4050053750155124</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2787986080017078</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.2712404070985045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.090826114360969</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.94194530259191</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.523218335051436</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.165157576796854</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-5.266224210823213</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2187174409142867</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5768114677681151</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3242763317534093</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3160696616095418</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2551187926615128</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.06921630630494</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.613249587976054</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.14205604781481</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.2176195295311</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.72477991129025</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.429795489106797</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6040618762569123</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.599157211585726</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.537622050494132</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.22908174156917</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>39,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-5,98%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>31,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 7,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 7,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 14,24</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 6,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 16,23</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-24,55; 25,75</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-30,64; 34,58</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 84,49</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 25,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 74,79</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.6576665127881909</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02577552668097394</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.72557570900786</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.339413973646786</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.061901984967484</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02013386097298013</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.00103846520504677</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3682531250320006</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.04749041115101377</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3028549253700517</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.061966209352835</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.020617946145054</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.120150046595566</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.13443092739105</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1789556262954081</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.245545308685802</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2738129946637947</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0427988055075188</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3110579264941657</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.007195006670726043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.150229711837388</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.058950610969402</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.90569128631774</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.255253722632473</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.16070251667395</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.257548016626694</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3445275381937525</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.794244759925639</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2707087016922913</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7439540482418415</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
